--- a/DBMS/Data.xlsx
+++ b/DBMS/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Sports_Project\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Sport_project\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="573">
   <si>
     <t xml:space="preserve"> 1.탁구(1층 탁구장 5대)⇒ 강습, 일일(월)이용
 - 이용시간 : 09:00~22:00(상시)
@@ -283,9 +283,6 @@
 수영장</t>
   </si>
   <si>
-    <t>광주 동구 산수동 401-8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09:00~22:00</t>
   </si>
   <si>
@@ -308,18 +305,12 @@
     <t>062-604-2612</t>
   </si>
   <si>
-    <t>광주 서구 금화로 278</t>
-  </si>
-  <si>
     <t>시설내에 배드민턴샵 배치</t>
   </si>
   <si>
     <t>062-960-9923</t>
   </si>
   <si>
-    <t>광주 서구 발산로25번길 5</t>
-  </si>
-  <si>
     <t>062-604-1823</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>062-525-2617</t>
   </si>
   <si>
-    <t>광주 남구 승촌보길 90</t>
-  </si>
-  <si>
     <t>풍영 체육시설단지 정구장</t>
   </si>
   <si>
@@ -350,12 +338,6 @@
     <t>062-670-5000</t>
   </si>
   <si>
-    <t>광주 동구 용산동 151</t>
-  </si>
-  <si>
-    <t>광주 광산구 우산동 594</t>
-  </si>
-  <si>
     <t>09:00 ~ 22:00</t>
   </si>
   <si>
@@ -371,9 +353,6 @@
     <t>풍영 체육시설단 축구장</t>
   </si>
   <si>
-    <t>광주 북구 동림동 115-2</t>
-  </si>
-  <si>
     <t>예약 접수로 선착순으로 선정</t>
   </si>
   <si>
@@ -389,9 +368,6 @@
     <t>광산구 산월동 45번지</t>
   </si>
   <si>
-    <t>광주 광산구 동곡로 59</t>
-  </si>
-  <si>
     <t>062-960-9928</t>
   </si>
   <si>
@@ -420,9 +396,6 @@
   </si>
   <si>
     <t>062-603-8899</t>
-  </si>
-  <si>
-    <t>광주 광산구 산월동 57</t>
   </si>
   <si>
     <t>상무시민공원
@@ -442,9 +415,6 @@
     <t>상무시민공원 배드민턴장</t>
   </si>
   <si>
-    <t>광주 북구 용봉동 300</t>
-  </si>
-  <si>
     <t>쌍암공원 인조잔디 축구장</t>
   </si>
   <si>
@@ -464,9 +434,6 @@
     <t>062-361-6941</t>
   </si>
   <si>
-    <t>광주 광산구 운남동 6</t>
-  </si>
-  <si>
     <t>빛고을국민체육센터
 수영장</t>
   </si>
@@ -477,22 +444,10 @@
     <t>010-3029-3628</t>
   </si>
   <si>
-    <t>광주 남구 회재로 1187</t>
-  </si>
-  <si>
     <t>062-608-2121</t>
   </si>
   <si>
-    <t>광주 북구 대천로 86</t>
-  </si>
-  <si>
-    <t>광주 북구 중흥동 347-1</t>
-  </si>
-  <si>
     <t>풍암생활체육공원 족구장</t>
-  </si>
-  <si>
-    <t>광주 동구 학동 719-9</t>
   </si>
   <si>
     <t>062-351-0076</t>
@@ -511,9 +466,6 @@
     <t>광주광역시 서구 유촌동 30</t>
   </si>
   <si>
-    <t>광주 북구 임동 316</t>
-  </si>
-  <si>
     <t>062-225-8700</t>
   </si>
   <si>
@@ -523,9 +475,6 @@
     <t>062-371-8855</t>
   </si>
   <si>
-    <t>광주 서구 금화로 240</t>
-  </si>
-  <si>
     <t>062-956-9701</t>
   </si>
   <si>
@@ -541,9 +490,6 @@
     <t>광주광역시 두암동 126-2</t>
   </si>
   <si>
-    <t>광주 광산구 산월동 56</t>
-  </si>
-  <si>
     <t>062-513-0977</t>
   </si>
   <si>
@@ -560,9 +506,6 @@
   </si>
   <si>
     <t>062-576-7330</t>
-  </si>
-  <si>
-    <t>광주 동구 계림동 100-1</t>
   </si>
   <si>
     <t>운남생활체육시설단지
@@ -591,27 +534,12 @@
     <t>광주광역시 동림동 130-7</t>
   </si>
   <si>
-    <t>광주 남구 봉선로 208</t>
-  </si>
-  <si>
     <t>풍암생활체육공원 농구장</t>
   </si>
   <si>
-    <t>광주 북구 연제동 730</t>
-  </si>
-  <si>
-    <t>광주 광산구 첨단강변로 76</t>
-  </si>
-  <si>
     <t>0507-1327-0970</t>
   </si>
   <si>
-    <t>광주 서구 염화로 114</t>
-  </si>
-  <si>
-    <t>광주 동구 소태동 166</t>
-  </si>
-  <si>
     <t>풍암생활체육공원 정구장</t>
   </si>
   <si>
@@ -619,15 +547,6 @@
   </si>
   <si>
     <t>062-360-7850</t>
-  </si>
-  <si>
-    <t>광주 남구 화산로 30</t>
-  </si>
-  <si>
-    <t>광주 광산구 산월동 35-1</t>
-  </si>
-  <si>
-    <t>광주 광산구 월곡동 587</t>
   </si>
   <si>
     <t>062-460-2015</t>
@@ -650,12 +569,6 @@
     <t>062-360-7029</t>
   </si>
   <si>
-    <t>광주 남구 화산로 110</t>
-  </si>
-  <si>
-    <t>광주 동구 산수동 519-4</t>
-  </si>
-  <si>
     <t>문화근린공원
 인조잔디구장</t>
   </si>
@@ -682,25 +595,13 @@
     <t>062-671-8383</t>
   </si>
   <si>
-    <t>광주 광산구 운남동 82-1</t>
-  </si>
-  <si>
     <t>062-372-8145</t>
   </si>
   <si>
-    <t>광주 서구 상무공원로 101</t>
-  </si>
-  <si>
-    <t>광주 동구 소태동 524-5</t>
-  </si>
-  <si>
     <t>062-530-2581~4</t>
   </si>
   <si>
     <t>062-251-5340</t>
-  </si>
-  <si>
-    <t>광주 광산구 첨단중앙로 23</t>
   </si>
   <si>
     <t>062-955-9101</t>
@@ -757,9 +658,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>광주 광산구 신촌동</t>
-  </si>
-  <si>
     <t>동림동 친수공원</t>
   </si>
   <si>
@@ -789,9 +687,6 @@
   </si>
   <si>
     <t>매곡위드배드민턴</t>
-  </si>
-  <si>
-    <t>광주 광산구 황룡동</t>
   </si>
   <si>
     <t>이용료 : 무료</t>
@@ -859,9 +754,6 @@
     <t>사용시간 : 06:00 ~ 18:00</t>
   </si>
   <si>
-    <t>광주 남구 중앙로110번길 36 사직공원</t>
-  </si>
-  <si>
     <t>광주광역시 서구 금화로 278 (풍암동)</t>
   </si>
   <si>
@@ -878,9 +770,6 @@
 수용인원 : 농구장1면</t>
   </si>
   <si>
-    <t>광주 북구 초당로7번길 5 매곡위드배드민턴</t>
-  </si>
-  <si>
     <t>06:00~18:00 (1회 2시간)</t>
   </si>
   <si>
@@ -891,9 +780,6 @@
 수용인원 : 배구장 1면</t>
   </si>
   <si>
-    <t>광주 북구 매곡동 491-3 중외공원내</t>
-  </si>
-  <si>
     <t>송무정</t>
   </si>
   <si>
@@ -984,9 +870,6 @@
     <t>무료</t>
   </si>
   <si>
-    <t>광주 동구 화산로 318-26</t>
-  </si>
-  <si>
     <t>광주광역시 서구 마륵동 606</t>
   </si>
   <si>
@@ -994,12 +877,6 @@
   </si>
   <si>
     <t> 062- 380-6870~1</t>
-  </si>
-  <si>
-    <t>광주 광산구 쌍암동 695-3</t>
-  </si>
-  <si>
-    <t>광주 광산구 산정동 산 105-1</t>
   </si>
   <si>
     <t>광주광역시 서구 풍암공원로 20</t>
@@ -1019,9 +896,6 @@
     <t>안내데스크에서 등록후 이용가능</t>
   </si>
   <si>
-    <t>광주 광산구 안청동 736-1</t>
-  </si>
-  <si>
     <t>광주광역시 북구 추암로 190</t>
   </si>
   <si>
@@ -1034,27 +908,12 @@
     <t>이용료 전화 문의, 현장 문의</t>
   </si>
   <si>
-    <t>광주 서구 풍암동 396-19</t>
-  </si>
-  <si>
     <t>광주광역시 서구 금호동 789</t>
   </si>
   <si>
     <t>주중 09:00 ~ 18:00</t>
   </si>
   <si>
-    <t>광주 북구 신안동 234-15</t>
-  </si>
-  <si>
-    <t>광주 북구 문흥동 1009-1</t>
-  </si>
-  <si>
-    <t>광주 광산구 우산동 1577-1</t>
-  </si>
-  <si>
-    <t>광주 광산구 풍영철길로 106-2</t>
-  </si>
-  <si>
     <t>첨단종합운동장 소프트볼장(3면)</t>
   </si>
   <si>
@@ -1070,31 +929,16 @@
     <t>광주광역시 서구 상무누리로 148</t>
   </si>
   <si>
-    <t>광주 광산구 쌍암동 653-1</t>
-  </si>
-  <si>
     <t>광주광역시 북구 중문로 62 58</t>
   </si>
   <si>
-    <t>광주 광산구 장덕로96번길 15</t>
-  </si>
-  <si>
     <t>광주광역시 서구 쌍촌동 927-12</t>
   </si>
   <si>
     <t>광주광역시 서구 서창둑길 18</t>
   </si>
   <si>
-    <t>광주 광산구 금봉로 22-41</t>
-  </si>
-  <si>
-    <t>광주 광산구 하남동 499-3</t>
-  </si>
-  <si>
     <t>청소년(4000), 일반(8000)</t>
-  </si>
-  <si>
-    <t>광주 광산구 동곡서호길 21-36</t>
   </si>
   <si>
     <t>광주광역시 서구 상무공원로 101</t>
@@ -1173,9 +1017,6 @@
   <si>
     <t>올림픽기념
 국민생활관</t>
-  </si>
-  <si>
-    <t>광주 남구 덕남길 7</t>
   </si>
   <si>
     <t>첨단종합운동장
@@ -1330,9 +1171,6 @@
   <si>
     <t>오전 06:00 ~ 12:00
 오후 15:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>광주 서구 치평동 상무자유로 73 여성발전센터 지하1층 수영장</t>
   </si>
   <si>
     <t>https://www.donggucc.kr/www/cmd.do</t>
@@ -1549,9 +1387,6 @@
     <t>어른(1,000), 청소년(800), 어린이(500)</t>
   </si>
   <si>
-    <t>광주 서구 금화로 278 염주체육관 내 서향순 양궁장</t>
-  </si>
-  <si>
     <t>회원 입회비 : 300,000
 월 회비 : 30,000</t>
   </si>
@@ -1565,17 +1400,11 @@
     <t>평일07:00~22:00/ 토.공휴일09:00~19:00</t>
   </si>
   <si>
-    <t>광주 서구 금화로 240 (풍암동, 모아레포츠타운)</t>
-  </si>
-  <si>
     <t>동절기 09:00~17:00
 하절기 07:00~19:00</t>
   </si>
   <si>
     <t>성인(2000), 청소년(1500). 어린이(1000)</t>
-  </si>
-  <si>
-    <t>광주 광산구 무진대로211번길 28 빛고을국민체육센터</t>
   </si>
   <si>
     <t>주중 및 주말(월~일) : 06:00 ~ 23:00</t>
@@ -2113,6 +1942,171 @@
   <si>
     <t xml:space="preserve">테니스 </t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 서구 금화로 278</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 금화로 240</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 금화로 240 (풍암동, 모아레포츠타운)</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 발산로25번길 5</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 풍암동 396-19</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 금화로 278 염주체육관 내 서향순 양궁장</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 치평동 상무자유로 73 여성발전센터 지하1층 수영장</t>
+  </si>
+  <si>
+    <t>광주광역시 서구 염화로 114</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 초당로7번길 5 매곡위드배드민턴</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 임동 316</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 매곡동 491-3 중외공원내</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 대천로 86</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 문흥동 1009-1</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 용봉동 300</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 연제동 730</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 신안동 234-15</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 동림동 115-2</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 중흥동 347-1</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 중앙로110번길 36 사직공원</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 회재로 1187</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 봉선로 208</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 화산로 110</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 승촌보길 90</t>
+  </si>
+  <si>
+    <t>광주광역시 남구 화산로 30</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 동곡로 59</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 산정동 산 105-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 첨단중앙로 23</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 신촌동</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 우산동 1577-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 무진대로211번길 28 빛고을국민체육센터</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 금봉로 22-41</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 황룡동</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 장덕로96번길 15</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 쌍암동 653-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 안청동 736-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 운남동 6</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 운남동 82-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 월곡동 587</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 쌍암동 695-3</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 첨단강변로 76</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 산월동 57</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 산월동 56</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 산월동 35-1</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 우산동 594</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 풍영철길로 106-2</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 하남동 499-3</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구 동곡서호길 21-36</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 계림동 100-1</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 산수동 519-4</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 소태동 166</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 소태동 524-5</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 학동 719-9</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 산수동 401-8</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 용산동 151</t>
+  </si>
+  <si>
+    <t>광주광역시 동구 화산로 318-26</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +2824,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2842,2422 +2836,2738 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="58.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="8" max="8" width="58.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>527</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>572</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>558</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+        <v>561</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>297</v>
+        <v>564</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5288,82 +5598,82 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>430</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C5" s="8">
         <v>500</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>0</v>
@@ -5371,27 +5681,27 @@
     </row>
     <row r="8" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C8" s="23">
         <v>1000</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>28</v>
@@ -5399,10 +5709,10 @@
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>8</v>
@@ -5410,91 +5720,91 @@
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="22">
         <v>400</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="22">
         <v>400</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>9</v>
@@ -5502,13 +5812,13 @@
     </row>
     <row r="18" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>30</v>
@@ -5516,71 +5826,71 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>21</v>
@@ -5588,225 +5898,225 @@
     </row>
     <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" s="8">
         <v>40000</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>18</v>
@@ -5815,60 +6125,60 @@
         <v>31</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>7</v>
@@ -5876,10 +6186,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="23">
         <v>2000</v>
@@ -5887,41 +6197,41 @@
     </row>
     <row r="47" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>27</v>
@@ -5929,237 +6239,237 @@
     </row>
     <row r="50" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>13</v>
@@ -6167,27 +6477,27 @@
     </row>
     <row r="67" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>24</v>
@@ -6195,32 +6505,32 @@
     </row>
     <row r="69" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>1</v>
@@ -6228,43 +6538,43 @@
     </row>
     <row r="72" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>4</v>
@@ -6272,109 +6582,109 @@
     </row>
     <row r="76" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>22</v>
@@ -6382,21 +6692,21 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>23</v>
@@ -6404,18 +6714,18 @@
     </row>
     <row r="88" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>25</v>
@@ -6426,10 +6736,10 @@
     </row>
     <row r="90" spans="1:4" ht="162" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>3</v>
@@ -6437,134 +6747,134 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>5</v>
@@ -6572,35 +6882,35 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6628,22 +6938,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6669,19 +6979,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/DBMS/Data.xlsx
+++ b/DBMS/Data.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8670" tabRatio="731" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8670" tabRatio="731" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="검색" sheetId="1" r:id="rId1"/>
     <sheet name="전체 리스트" sheetId="2" r:id="rId2"/>
-    <sheet name="상세 페이지" sheetId="3" r:id="rId3"/>
-    <sheet name="QnA" sheetId="4" r:id="rId4"/>
-    <sheet name="User" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="상세 페이지" sheetId="3" r:id="rId4"/>
+    <sheet name="QnA" sheetId="4" r:id="rId5"/>
+    <sheet name="User" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="661">
   <si>
     <t xml:space="preserve"> 1.탁구(1층 탁구장 5대)⇒ 강습, 일일(월)이용
 - 이용시간 : 09:00~22:00(상시)
@@ -2107,6 +2108,277 @@
   </si>
   <si>
     <t>광주광역시 동구 화산로 318-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금화로 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금화로 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 덕흥동 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마륵동 606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금호동 789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금화로 240 (풍암동, 모아레포츠타운)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발산로25번길 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쌍촌동 927-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상무공원로 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상무누리로 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쌍촌동 375-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 풍암동 396-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서창둑길 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금화로 278 염주체육관 내 서향순 양궁장</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 치평동 상무자유로 73 여성발전센터 지하1층 수영장</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금화로 278 (풍암동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유촌동 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 치평동 1280-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 염화로 114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 풍암2로 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 풍암공원로 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 북문대로 219 시립장애인복지관</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 초당로7번길 5 매곡위드배드민턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 임동 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 매곡동 491-3 중외공원내</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대천로 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 문흥동 1009-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중문로 62 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 용봉동 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 연제동 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 신안동 234-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 동림동 115-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중흥동 347-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추암로 190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 독립로384번길 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 계림동 100-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산수동 519-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소태동 166</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 남문로 646 동구문화센터</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소태동 524-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 학동 719-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산수동 401-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 용산동 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 화산로 318-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중앙로110번길 36 사직공원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회재로 1187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 봉선로 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 화산로 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대남대로117번길 40 (봉선동 1016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 덕남길 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 승촌2길 21 (승촌동 757)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 승촌보길 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 화산로 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 동곡로 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산정동 산 105-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 첨단중앙로 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 신촌동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우산동 1577-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 무진대로211번길 28 빛고을국민체육센터</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금봉로 22-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 황룡동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 장덕로96번길 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쌍암동 653-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 안청동 736-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 운남동 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 운남동 82-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 월곡동 587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쌍암동 695-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 첨단강변로 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산월동 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산월동 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산월동 35-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우산동 594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 풍영철길로 106-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 하남동 499-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 동곡서호길 21-36</t>
+  </si>
+  <si>
+    <t>광주광역시 광산구</t>
+  </si>
+  <si>
+    <t>산월동 45번지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 서구</t>
+  </si>
+  <si>
+    <t>광주광역시 동구</t>
+  </si>
+  <si>
+    <t>광주광역시 남구</t>
+  </si>
+  <si>
+    <t>광주광역시 북구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 북문대로 200 북구다목적체육관</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 북구</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>동림동 130-7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>두암동 126-2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>번지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2224,7 +2496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,6 +2603,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2826,8 +3104,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="C1:C1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2839,11 +3117,10 @@
     <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="58.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
@@ -2865,11 +3142,8 @@
       <c r="G1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2891,11 +3165,8 @@
       <c r="G2" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2917,11 +3188,8 @@
       <c r="G3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2943,11 +3211,8 @@
       <c r="G4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2969,11 +3234,8 @@
       <c r="G5" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2995,11 +3257,8 @@
       <c r="G6" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3021,11 +3280,8 @@
       <c r="G7" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3047,11 +3303,8 @@
       <c r="G8" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3073,11 +3326,8 @@
       <c r="G9" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3099,11 +3349,8 @@
       <c r="G10" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3125,11 +3372,8 @@
       <c r="G11" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3151,11 +3395,8 @@
       <c r="G12" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3177,11 +3418,8 @@
       <c r="G13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3203,11 +3441,8 @@
       <c r="G14" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3229,11 +3464,8 @@
       <c r="G15" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3255,11 +3487,8 @@
       <c r="G16" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3281,11 +3510,8 @@
       <c r="G17" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3307,11 +3533,8 @@
       <c r="G18" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3333,11 +3556,8 @@
       <c r="G19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3359,11 +3579,8 @@
       <c r="G20" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3385,11 +3602,8 @@
       <c r="G21" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3411,11 +3625,8 @@
       <c r="G22" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3437,11 +3648,8 @@
       <c r="G23" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3463,11 +3671,8 @@
       <c r="G24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3489,11 +3694,8 @@
       <c r="G25" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3515,11 +3717,8 @@
       <c r="G26" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3541,11 +3740,8 @@
       <c r="G27" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3567,11 +3763,8 @@
       <c r="G28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3590,11 +3783,8 @@
       <c r="G29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3616,11 +3806,8 @@
       <c r="G30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3642,11 +3829,8 @@
       <c r="G31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3668,11 +3852,8 @@
       <c r="G32" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3694,11 +3875,8 @@
       <c r="G33" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3720,11 +3898,8 @@
       <c r="G34" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3746,11 +3921,8 @@
       <c r="G35" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3772,11 +3944,8 @@
       <c r="G36" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3798,11 +3967,8 @@
       <c r="G37" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3824,11 +3990,8 @@
       <c r="G38" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3850,11 +4013,8 @@
       <c r="G39" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3876,11 +4036,8 @@
       <c r="G40" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3902,11 +4059,8 @@
       <c r="G41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3928,11 +4082,8 @@
       <c r="G42" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3954,11 +4105,8 @@
       <c r="G43" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3980,11 +4128,8 @@
       <c r="G44" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4006,11 +4151,8 @@
       <c r="G45" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4032,11 +4174,8 @@
       <c r="G46" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4058,11 +4197,8 @@
       <c r="G47" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4084,11 +4220,8 @@
       <c r="G48" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4110,11 +4243,8 @@
       <c r="G49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4136,11 +4266,8 @@
       <c r="G50" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4162,11 +4289,8 @@
       <c r="G51" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4188,11 +4312,8 @@
       <c r="G52" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4214,11 +4335,8 @@
       <c r="G53" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4240,11 +4358,8 @@
       <c r="G54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4266,11 +4381,8 @@
       <c r="G55" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4292,11 +4404,8 @@
       <c r="G56" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4318,11 +4427,8 @@
       <c r="G57" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4344,11 +4450,8 @@
       <c r="G58" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4370,11 +4473,8 @@
       <c r="G59" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4396,11 +4496,8 @@
       <c r="G60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4422,11 +4519,8 @@
       <c r="G61" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4448,11 +4542,8 @@
       <c r="G62" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4474,11 +4565,8 @@
       <c r="G63" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4500,11 +4588,8 @@
       <c r="G64" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4526,11 +4611,8 @@
       <c r="G65" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4552,11 +4634,8 @@
       <c r="G66" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4578,11 +4657,8 @@
       <c r="G67" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4604,11 +4680,8 @@
       <c r="G68" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4630,11 +4703,8 @@
       <c r="G69" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4656,11 +4726,8 @@
       <c r="G70" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4682,11 +4749,8 @@
       <c r="G71" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4708,11 +4772,8 @@
       <c r="G72" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4734,11 +4795,8 @@
       <c r="G73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4760,11 +4818,8 @@
       <c r="G74" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4786,11 +4841,8 @@
       <c r="G75" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4812,11 +4864,8 @@
       <c r="G76" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4838,11 +4887,8 @@
       <c r="G77" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4864,11 +4910,8 @@
       <c r="G78" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4890,11 +4933,8 @@
       <c r="G79" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4916,11 +4956,8 @@
       <c r="G80" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4942,11 +4979,8 @@
       <c r="G81" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4968,11 +5002,8 @@
       <c r="G82" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4994,11 +5025,8 @@
       <c r="G83" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5020,11 +5048,8 @@
       <c r="G84" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5046,11 +5071,8 @@
       <c r="G85" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5072,11 +5094,8 @@
       <c r="G86" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5098,11 +5117,8 @@
       <c r="G87" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5124,11 +5140,8 @@
       <c r="G88" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5150,11 +5163,8 @@
       <c r="G89" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5176,11 +5186,8 @@
       <c r="G90" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5202,11 +5209,8 @@
       <c r="G91" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5228,11 +5232,8 @@
       <c r="G92" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5254,11 +5255,8 @@
       <c r="G93" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5280,11 +5278,8 @@
       <c r="G94" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H94" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5306,11 +5301,8 @@
       <c r="G95" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5332,11 +5324,8 @@
       <c r="G96" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5358,11 +5347,8 @@
       <c r="G97" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H97" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5384,11 +5370,8 @@
       <c r="G98" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5410,11 +5393,8 @@
       <c r="G99" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H99" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5436,11 +5416,8 @@
       <c r="G100" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H100" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5462,11 +5439,8 @@
       <c r="G101" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H101" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5488,11 +5462,8 @@
       <c r="G102" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5514,11 +5485,8 @@
       <c r="G103" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H103" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5540,11 +5508,8 @@
       <c r="G104" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H104" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5564,9 +5529,6 @@
         <v>123</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H105" s="6" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5578,6 +5540,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="46" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D105"/>
@@ -6925,7 +8381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G1"/>
@@ -6963,7 +8419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F1"/>
